--- a/exit.xlsx
+++ b/exit.xlsx
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D1" sqref="D1:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,232 +471,428 @@
     <col min="1" max="1" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <f>1-B1</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f t="shared" ref="C2:C28" si="0">1-B2</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2.7624309392265196E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.97237569060773477</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>5.5214723926380369E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.94478527607361962</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.16828929068150206</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.83171070931849789</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>7.9487179487179496E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.92051282051282046</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0.14793856103476152</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.85206143896523845</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0.12310151878497204</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.876898481215028</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>0.11045218680504079</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.88954781319495924</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>0.15324858757062149</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.84675141242937846</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>0.18732876712328766</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.81267123287671228</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>0.15202369200394866</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.84797630799605139</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0.13182897862232779</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.86817102137767221</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>0.12134344528710726</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.87865655471289272</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>0.11920529801324503</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.88079470198675502</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>0.15260848366650415</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.84739151633349585</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>0.10829817158931082</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.89170182841068923</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>9.8597919493441891E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.90140208050655812</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>9.666803784450842E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.90333196215549161</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>0.10900473933649288</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.89099526066350709</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>9.3990755007704152E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.90600924499229585</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>6.7239174127535176E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.93276082587246478</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>7.4785152678734687E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.92521484732126535</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>6.9332355099046228E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.93066764490095377</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>8.2751396648044692E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.91724860335195535</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>0.38516579406631762</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.61483420593368243</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>8.547387068201949E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.9145261293179805</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>0.12145390070921987</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.87854609929078009</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
